--- a/doc/ue_thread.xlsx
+++ b/doc/ue_thread.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="简介" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>FRunnableThread</t>
   </si>
@@ -396,11 +397,61 @@
  : public Frunnable</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>FORCEINLINE bool IsInGameThread()</t>
+  </si>
+  <si>
+    <t>判断当前线程是否为主线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>if(GIsGameThreadIdInitialized)</t>
+  </si>
+  <si>
+    <t>const uint32 CurrentThreadId = FPlatformTLS::GetCurrentThreadId();</t>
+  </si>
+  <si>
+    <t>return CurrentThreadId == GGameThreadId;</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>线程局部存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extern CORE_API bool IsInRenderingThread();</t>
+  </si>
+  <si>
+    <t>extern CORE_API bool IsInRHIThread();</t>
+  </si>
+  <si>
+    <t>extern CORE_API bool IsInAudioThread();</t>
+  </si>
+  <si>
+    <t>是否为渲染线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为RHI线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为音频线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,10 +800,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
